--- a/wearable-school-server/pcapjson2xlsx/pcapjson2xlsx.xlsx
+++ b/wearable-school-server/pcapjson2xlsx/pcapjson2xlsx.xlsx
@@ -430,7 +430,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1">
-        <v>41546.73828243055</v>
+        <v>41553.65474113426</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
